--- a/biology/Origine et évolution du vivant/Lissamphibia_(classification_phylogénétique)/Lissamphibia_(classification_phylogénétique).xlsx
+++ b/biology/Origine et évolution du vivant/Lissamphibia_(classification_phylogénétique)/Lissamphibia_(classification_phylogénétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lissamphibia_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Lissamphibia_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page a pour objet de présenter un arbre phylogénétique des Lissamphibia (Lissamphibiens, ou Amphibiens actuels), c'est-à-dire un cladogramme mettant en lumière les relations de parenté existant entre leurs différents groupes (ou taxa), telles que les dernières analyses reconnues les proposent. Ce n'est qu'une possibilité, et les principaux débats qui subsistent au sein de la communauté scientifique sont brièvement présentés ci-dessous, avant la bibliographie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lissamphibia_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Lissamphibia_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme présenté ici ne possède qu'une valeur indicative. Il n'est pas forcément consensuel, et on peut toujours se référer à la bibliographie au bas de l'article.
 Le symbole ▲ renvoie à la partie immédiatement supérieure de l'arbre phylogénétique du vivant. Le signe ► renvoie à la classification phylogénétique du groupe considéré. Tout nœud de l'arbre portant plus de deux branches montre une indétermination de la phylogénie interne du groupe considéré.
@@ -775,7 +789,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lissamphibia_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Lissamphibia_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -793,7 +807,9 @@
           <t>Débat scientifique relatif à la phylogénie des Lissamphibia</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme ci-dessus reproduit la classification de Frost et al. 2006, à propos de laquelle l'invention de nouveaux noms a été contestée.
 </t>
@@ -806,7 +822,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lissamphibia_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Lissamphibia_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -826,13 +842,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sources bibliographiques de référence
-Jason S. Anderson : « Focal Review: The Origin(s) of Modern Amphibians », in Evol. Biol., vol. 35, pp. 231-247, 2008
-Darrel R. Frost, Taran Grant, Julián Faivovich, Raoul H. Bain, Alexander Haas, Célio F.B. Haddad, Rafael O. de Sá, Alan Channing, Mark Wilkinson, Stephen C. Donnellan, Christopher J. Raxworthy, Jonathan A. Campbell, Boris L. Blotto, Paul Moler, Robert C. Drewes, Ronald A. Nussbaum, John D. Lynch, David M. Green et Ward C. Wheeler : « The Amphibian Tree of Life »(Archive.org • Wikiwix • Archive.is • Google • Que faire ?), Bulletin of the American Museum of Natural History, n° 297, 370 pages, 2006
-Autres sources bibliographiques
-Sources internet
-Liens internes
-Amphibia - Lissamphibia
+          <t>Sources bibliographiques de référence</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jason S. Anderson : « Focal Review: The Origin(s) of Modern Amphibians », in Evol. Biol., vol. 35, pp. 231-247, 2008
+Darrel R. Frost, Taran Grant, Julián Faivovich, Raoul H. Bain, Alexander Haas, Célio F.B. Haddad, Rafael O. de Sá, Alan Channing, Mark Wilkinson, Stephen C. Donnellan, Christopher J. Raxworthy, Jonathan A. Campbell, Boris L. Blotto, Paul Moler, Robert C. Drewes, Ronald A. Nussbaum, John D. Lynch, David M. Green et Ward C. Wheeler : « The Amphibian Tree of Life »(Archive.org • Wikiwix • Archive.is • Google • Que faire ?), Bulletin of the American Museum of Natural History, n° 297, 370 pages, 2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lissamphibia_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lissamphibia_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liens internes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amphibia - Lissamphibia
 Arbre phylogénétique
 Le vivant (classification phylogénétique)
 Eukaryota (classification phylogénétique)
